--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2803970323921128</v>
+        <v>-0.2878265411692921</v>
       </c>
       <c r="D2">
-        <v>0.7792074569936207</v>
+        <v>0.776173523335157</v>
       </c>
       <c r="E2">
         <v>3.288398169040958</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.9643136432845844</v>
+        <v>-0.8085972365240299</v>
       </c>
       <c r="D3">
-        <v>0.3350275682337056</v>
+        <v>0.4274049896869996</v>
       </c>
       <c r="E3">
         <v>3.288398169040958</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7640183172242185</v>
+        <v>0.7755806466395033</v>
       </c>
       <c r="D4">
-        <v>0.4449636779780612</v>
+        <v>0.446254231299974</v>
       </c>
       <c r="E4">
         <v>3.288398169040958</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.674860707866433</v>
+        <v>-1.70276176128932</v>
       </c>
       <c r="D5">
-        <v>0.09414778671338486</v>
+        <v>0.1027015933619893</v>
       </c>
       <c r="E5">
         <v>3.288398169040958</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.556269294286217</v>
+        <v>-0.58368569903801</v>
       </c>
       <c r="D6">
-        <v>0.5781008995086649</v>
+        <v>0.5653686652367287</v>
       </c>
       <c r="E6">
         <v>3.467297655256158</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9474009227734196</v>
+        <v>1.112914149564505</v>
       </c>
       <c r="D7">
-        <v>0.3435708518585492</v>
+        <v>0.2777583239318397</v>
       </c>
       <c r="E7">
         <v>3.467297655256158</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.211771204831086</v>
+        <v>-1.354709238399644</v>
       </c>
       <c r="D8">
-        <v>0.2257704788518626</v>
+        <v>0.1892600893798149</v>
       </c>
       <c r="E8">
         <v>3.467297655256158</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.398008092102994</v>
+        <v>1.179253734505126</v>
       </c>
       <c r="D9">
-        <v>0.1622952881077431</v>
+        <v>0.2508934718832188</v>
       </c>
       <c r="E9">
         <v>3.947938217810961</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.621629123105027</v>
+        <v>-0.5699938230354963</v>
       </c>
       <c r="D10">
-        <v>0.5342701583853051</v>
+        <v>0.5744572058909845</v>
       </c>
       <c r="E10">
         <v>3.947938217810961</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-2.242115963290556</v>
+        <v>-2.020947440780088</v>
       </c>
       <c r="D11">
-        <v>0.0250839828124958</v>
+        <v>0.05562015887206662</v>
       </c>
       <c r="E11">
         <v>2.901025799779622</v>
@@ -687,7 +684,7 @@
         <v>4.525939884187216</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>100</v>
